--- a/tau/pitsheets/br_pitsheets/BR3-1.xlsx
+++ b/tau/pitsheets/br_pitsheets/BR3-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/field_data/regional/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/tau/pitsheets/br_pitsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F188AFE-E897-344A-8234-59DA97954CB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E07F862-B84F-3D46-B3BE-3E58D97FBA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="500" windowWidth="26840" windowHeight="15540" activeTab="3" xr2:uid="{69A08980-350D-014F-BC7B-8833C5EF225E}"/>
+    <workbookView xWindow="1960" yWindow="500" windowWidth="26840" windowHeight="15540" activeTab="6" xr2:uid="{69A08980-350D-014F-BC7B-8833C5EF225E}"/>
   </bookViews>
   <sheets>
     <sheet name="BR3.1_soil" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="46">
   <si>
     <t>Pit</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Bulk</t>
+  </si>
+  <si>
+    <t>20 x 20 cm rock volume</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06CE59C-420E-B646-B605-EC80CA6F5768}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2142,10 +2145,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D606C84-882D-BF41-94B2-11AD6E76D0E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
